--- a/evaluation/aggregate_aqes.xlsx
+++ b/evaluation/aggregate_aqes.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="q5" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs1057519999.</t>
+          <t>Tell me about variants that have similar effects to the rs1057519999 variant.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,39 +503,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ChatTogoVar provided the most detailed and structured response, covering all relevant aspects of rs1057519999, including variant information, disease associations, population frequency, and functional evidence. It demonstrated significant accuracy and completeness compared to other systems. Despite VarChat containing some detailed functional insights specific to TP53 mutations, it lacked clarity and proper structure.</t>
+          <t>ChatTogoVar provided a detailed and specific response, analyzing related variants with scientific rigor and evidence, making it the most relevant and accurate. GPT-4o was more generalized and lacked specificity, while VarChat's response was disorganized and overly technical, making it harder to interpret.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ChatTogoVar は rs1057519999 に関する情報（バリアント情報、疾患関連性、集団頻度、機能的証拠）を網羅的かつ構造的に提供し、他のシステムと比較して最も正確で完全な回答を示しました。一方で、VarChat は TP53 変異に関する詳細な機能的知見を一部含むものの、明確さと適切な構造に欠けていました。</t>
+          <t>ChatTogoVarは詳細で具体的な回答を提供し、関連するバリアントを科学的に正確に分析しており、最も関連性が高く正確でした。GPT-4oは一般的で具体性に欠け、VarChatの回答は整合性に欠け、過度に技術的で解釈が難しいものでした。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs12037987.</t>
+          <t>Tell me about variants that have similar effects to the rs12037987 variant.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,17 +545,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ChatTogoVar</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -565,24 +565,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ChatTogoVar provides the most accurate and detailed information directly related to rs12037987, including allele frequency data, genomic position, and associations while being concise and clear. GPT-4o contains inaccuracies, as it misplaces rs12037987 on chromosome 8 and associates it with unrelated traits. VarChat includes information on WNT2B but lacks clarity and misrepresents sources.</t>
+          <t>GPT-4o provided a more accurate and comprehensive response with several examples of similar variants and their biological implications. ChatTogoVar offered accurate but incomplete details and lacked direct comparisons, while VarChat was unclear and focused on unrelated associations with stroke risk.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs12037987に直接関連する最も正確で詳細な情報（対立遺伝子頻度データ、ゲノム位置、関連性など）を提供しており、簡潔かつ明確です。GPT-4oは、rs12037987を染色体8に誤って配置し、無関係な形質と関連付けているため正確性に欠けます。VarChatはWNT2Bに関する情報を含むものの、明確さを欠き、情報源の表現を誤っています。</t>
+          <t>GPT-4oは、類似した変異体の例やその生物学的影響についての正確で包括的な回答を提供しました。ChatTogoVarは正確だが不完全な詳細であり、直接の比較はありませんでした。一方、VarChatは明確ではなく、脳卒中リスクとの無関係な関連に焦点を当てました。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs1170153450.</t>
+          <t>Tell me about variants that have similar effects to the rs1170153450 variant.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,44 +592,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ChatTogoVar</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ChatTogoVar provides the most detailed and accurate information about rs1170153450, including genomic, functional, and frequency data. GPT-4o is less comprehensive and vague, while VarChat suffers from poor structure, unsupported claims, and lacks clarity. </t>
+          <t xml:space="preserve">GPT-4o provides the most structured and relevant information, explaining potential approaches to identify variants with similar effects to rs1170153450. While it lacks some specificity, its clarity, logical structure, and actionable suggestions make it the best answer among the three. </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs1170153450に関する詳細で正確な情報（ゲノム、機能、頻度データを含む）を提供しています。一方、GPT-4oの回答は包括性に欠け、曖昧な部分があります。VarChatは構造が悪く、根拠のない主張が多く、明確性に欠けています。</t>
+          <t>GPT-4oは、rs1170153450と類似した影響を持つバリアントを特定するためのアプローチを説明しており、最も構造化されて関連性のある情報を提供します。特定性に欠ける部分はあるものの、明確さ、論理的構造、および実行可能な提案により、最善の回答となっています。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs1235072590.</t>
+          <t>Tell me about variants that have similar effects to the rs1235072590 variant.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -639,44 +639,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VarChat</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VarChat provides the most comprehensive and accurate information about rs1235072590, including specific details about the mutation, its effects, and clinical associations. While GPT-4o is accurate but incomplete, ChatTogoVar lacks sufficient information entirely.</t>
+          <t>GPT-4o provides the most comprehensive and accurate explanation for identifying variants with similar effects, along with extensive details on how to analyze them. ChatTogoVar lacks detail on specific methodologies for identifying similar variants, and VarChat is overly specific to beta-thalassemia without general applicability.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VarChatはrs1235072590に関する情報を最も包括的かつ正確に提供しており、突然変異の詳細、その影響、および臨床的関連性に関する具体的な情報が含まれています。一方で、GPT-4oは正確ですが不完全であり、ChatTogoVarは十分な情報を欠いています。</t>
+          <t>GPT-4oは類似の影響を持つ変異を特定する方法について最も包括的で正確な説明を提供しており、分析手法についても詳細を述べています。ChatTogoVarは類似変異の特定に関する具体的な手法の記述が不足しており、VarChatはベータサラセミアに特化しすぎており、一般的な適用性に欠けています。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs121918719.</t>
+          <t>Tell me about variants that have similar effects to the rs121918719 variant.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ChatTogoVar provides accurate, thorough, and well-referenced information about rs121918719, including variant details, disease associations, population frequencies, and functional predictions that align with the latest genomic data. While VarChat is also clear and accurate, it is slightly less detailed. GPT-4o contains significant inaccuracies, such as misattributing the variant to the TP53 gene. </t>
+          <t>ChatTogoVar provided relevant, accurate, and structured information about rs121918719, including suggestions to explore similar variants and diseases, while maintaining clarity and completeness. VarChat correctly described the specifics of rs121918719 but included overly verbose and tangential details, reducing conciseness. GPT-4o made several inaccuracies by confusing the variant’s gene and associated disease, thereby lowering its score significantly.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs121918719に関する正確で徹底的かつ十分に参照された情報を提供しており、バリアントの詳細、疾患関連性、集団頻度、機能予測を含み、最新のゲノムデータと一致しています。VarChatも明確で正確ですが、やや詳細性に欠けています。一方、GPT-4oは、この変異をTP53遺伝子に誤って関連付けるなど、重大な不正確さを含んでいます。</t>
+          <t>ChatTogoVar は rs121918719 に関する正確で構造化された情報を提供し、類似の変異体や疾患に関する探索の提案も行い、明確性と完全性を維持しました。一方、VarChat は rs121918719 の詳細を正確に記述しましたが、冗長で無関係な部分が含まれ、簡潔さが損なわれました。GPT-4o は遺伝子や関連疾患を混同するなどの重大な誤りがあり、スコアが大幅に低下しました。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs121913279.</t>
+          <t>Tell me about variants that have similar effects to the rs121913279 variant.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -738,39 +738,39 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ChatTogoVar provides the most comprehensive, accurate, and detailed response about rs121913279, covering key variant information, disease associations, and literature references. GPT-4o inaccurately attributes rs121913279 to the BRCA2 gene and provides incorrect variant details. VarChat performs well by focusing on the PIK3CA gene and its oncogenic relevance but lacks clarity in some sections.</t>
+          <t>ChatTogoVar provided the most comprehensive and accurate information on variants with effects similar to rs121913279, focusing on PIK3CA and including detailed variant data, functional predictions, and disease associations.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs121913279に関する最も包括的で正確かつ詳細な回答を提供しており、主要な変異情報、疾患関連性、および文献参照を含んでいます。GPT-4oはrs121913279をBRCA2遺伝子に誤って関連付け、誤った変異情報を提供しています。VarChatはPIK3CA遺伝子とその腫瘍形成関連に焦点を当てており、優れていますが、一部のセクションで明確さに欠けています。</t>
+          <t>ChatTogoVarは、rs121913279と類似した影響を持つバリアントについて最も包括的かつ正確な情報を提供し、PIK3CAに焦点を当て、詳細なバリアントデータ、機能予測、および疾患関連を含んでいた。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs1208662086.</t>
+          <t>Tell me about variants that have similar effects to the rs1208662086 variant.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -785,12 +785,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -800,24 +800,24 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ChatTogoVar provides the most detailed and precise response, thoroughly addressing rs1208662086 with specific variant details, functional predictions, population frequencies, and disease associations. GPT-4o gives a generic overview without specific data on rs1208662086, and VarChat focuses on unrelated literature and lacks direct information on the variant.</t>
+          <t>ChatTogoVar provided the most comprehensive, accurate, and structured explanation about rs1208662086, identifying similar variants and their effects with links to relevant databases. GPT-4o lacked detailed variant context, while VarChat was incomplete and less focused on the question.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs1208662086に関する詳細で正確な回答を提供し、特定のバリアントの詳細、機能予測、集団頻度、および疾患関連について徹底的に説明しています。GPT-4oは、rs1208662086に関する具体的なデータを欠いた一般的な概要を示しており、VarChatは関連性のない文献に焦点を当て、バリアントに関する直接的な情報を欠いています。</t>
+          <t>ChatTogoVarは、rs1208662086に関する最も包括的で正確かつ構造化された説明を提供し、類似した変異体とその影響を関連するデータベースへのリンクと共に特定しました。GPT-4oは変異体の詳細な文脈が欠けており、VarChatは不完全で質問に焦点が当たっていませんでした。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs1201448391.</t>
+          <t>Tell me about variants that have similar effects to the rs1201448391 variant.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -832,39 +832,39 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ChatTogoVar provided the most comprehensive and accurate answer. It included detailed information about the variant, its associated gene, predictions from computational tools, allele frequencies, and links to credible sources, despite no specific disease-causation being identified yet. VarChat gave disease-related information relying on references but overstated causation without evidence of direct relevance to rs1201448391. GPT-4o was very generic and lacked specific details on the SNP.</t>
+          <t>ChatTogoVar provides the most specific and comprehensive information about rs1201448391 and related variants, including gene-level details and pathogenicity predictions. It also outlines methods to find similar variants, making it the most useful answer.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、最も包括的で正確な回答を提供しました。変異についての詳細情報、関連遺伝子、計算ツールからの予測、アレル頻度、信頼できる情報源へのリンクが含まれており、疾患との直接的な関連性が未確認である点を考慮しても極めて高品質でした。一方、VarChatは疾患関連情報を提示しましたが、rs1201448391への具体的な因果関係がない状態で過剰に強調している節がありました。GPT-4oは非常に曖昧で、このSNPに関する具体的な情報を欠いていました。</t>
+          <t>ChatTogoVarは、rs1201448391および関連するバリアントに関する最も具体的で包括的な情報を提供しており、遺伝子レベルの詳細や病原性予測が含まれています。また、類似バリアントを見つける方法を説明しており、最も有用な回答となっています。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs121913529.</t>
+          <t>Tell me about variants that have similar effects to the rs121913529 variant.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -879,39 +879,39 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ChatTogoVar provides the most accurate, complete, and logically consistent information regarding rs121913529, specifically identifying its association with the KRAS gene and its role in various cancers. GPT-4o contains inaccuracies as it incorrectly associates the variant with the BRCA2 gene, while VarChat lacks clarity, conciseness, and does not fully address the query.</t>
+          <t>ChatTogoVar provided the most accurate, complete, and evidence-supported response with specific variants related to rs121913529 and their pathogenic mechanisms. GPT-4o misidentified rs121913529 and discussed unrelated variants, while VarChat's response lacked focus and usable information despite relevant citations.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs121913529に関する情報を最も正確かつ包括的に提供しており、特にKRAS遺伝子との関連性やさまざまな癌における役割を特定しています。GPT-4oは、この変異をBRCA2遺伝子に誤って関連付けているため不正確です。VarChatは明確さと簡潔さを欠き、質問に十分に答えていません。</t>
+          <t>ChatTogoVarは、rs121913529に関連した具体的な変異およびその病原メカニズムについて、最も正確で完全かつ証拠に基づいた回答を提供しました。GPT-4oはrs121913529を誤って識別し、無関係な変異について言及しました。一方、VarChatの回答は関連する引用があるにもかかわらず、集中性と有用な情報が欠けていました。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Summarize what you know about rs113488022.</t>
+          <t>Tell me about variants that have similar effects to the rs113488022 variant.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -926,27 +926,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ChatTogoVar provides the most accurate, complete, logically consistent, and well-supported answer with detailed and reliable information about rs113488022, especially in terms of clinical significance, genomic details, and population frequency. VarChat was overly verbose and presented fragmented citations, while GPT-4o contained critical inaccuracies, including associating rs113488022 with an incorrect gene (*OR4F16*). </t>
+          <t>ChatTogoVar provides the most comprehensive, accurate, and relevant explanation of the variants similar to rs113488022, including detailed functional annotations, pathogenicity, and predictions. GPT-4o's response is detailed but lacks specificity regarding the exact variant effects, while VarChat’s response is incomplete and disorganized.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ChatTogoVarは、rs113488022に関する情報を最も正確かつ包括的に提供し、臨床的重要性、ゲノムの詳細、集団頻度についての情報が信頼性を持って詳述されています。VarChatは冗長で断片的な引用が多く、GPT-4oは*OR4F16*という誤った遺伝子との関連付けを含む重大な不正確さがありました。</t>
+          <t>ChatTogoVarの回答は、rs113488022に類似する変異について、機能的注釈、病原性、および予測を含む最も包括的で正確な説明を提供しています。GPT-4oの回答は詳細ですが、具体的な変異効果に言及していない部分があります。一方、VarChatの回答は不完全で整理が不十分です。</t>
         </is>
       </c>
     </row>
